--- a/data/trans_orig/P14A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{546BBB7C-DCEA-4A39-A30C-87B3ED47BF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{76996CA6-85E9-4123-A285-BFC7853E75C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C6283E61-DD3F-4029-AF9D-218A3F03FF81}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A816EEA-B6FE-4E7F-BBCB-D30060C8BCDF}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -102,10 +102,10 @@
     <t>91,24%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -129,10 +129,10 @@
     <t>8,76%</t>
   </si>
   <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -144,13 +144,13 @@
     <t>90,61%</t>
   </si>
   <si>
-    <t>67,38%</t>
+    <t>67,36%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>80,55%</t>
+    <t>80,4%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -159,13 +159,13 @@
     <t>9,39%</t>
   </si>
   <si>
-    <t>32,62%</t>
+    <t>32,64%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>19,45%</t>
+    <t>19,6%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -174,49 +174,49 @@
     <t>91,85%</t>
   </si>
   <si>
-    <t>74,99%</t>
+    <t>74,97%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
+    <t>62,4%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>25,01%</t>
+    <t>25,03%</t>
   </si>
   <si>
     <t>33,22%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -225,55 +225,55 @@
     <t>55,32%</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>32,72%</t>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
   </si>
   <si>
     <t>65,65%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
     <t>44,68%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>78,66%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
     <t>34,35%</t>
   </si>
   <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
+    <t>64,44%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -285,19 +285,19 @@
     <t>73,87%</t>
   </si>
   <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -306,19 +306,19 @@
     <t>26,13%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -327,154 +327,148 @@
     <t>85,97%</t>
   </si>
   <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>59,85%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>65,79%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>37,54%</t>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>35,71%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
+    <t>40,15%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>60,83%</t>
+    <t>60,65%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>80,32%</t>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -492,19 +486,19 @@
     <t>71,08%</t>
   </si>
   <si>
-    <t>50,89%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>73,54%</t>
   </si>
   <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>13,93%</t>
@@ -516,169 +510,169 @@
     <t>28,92%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>44,04%</t>
+    <t>43,06%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>50,7%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>54,03%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>55,96%</t>
+    <t>56,94%</t>
   </si>
   <si>
     <t>27,43%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>49,3%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>61,84%</t>
+    <t>60,82%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>38,16%</t>
+    <t>39,18%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>67,83%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>54,62%</t>
   </si>
   <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>76,64%</t>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
   </si>
   <si>
     <t>52,72%</t>
   </si>
   <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>70,29%</t>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>71,49%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -687,13 +681,13 @@
     <t>91,43%</t>
   </si>
   <si>
-    <t>65,01%</t>
+    <t>58,67%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>65,1%</t>
+    <t>67,32%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -702,13 +696,13 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>34,99%</t>
+    <t>41,33%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>34,9%</t>
+    <t>32,68%</t>
   </si>
   <si>
     <t>78,49%</t>
@@ -726,10 +720,10 @@
     <t>89,06%</t>
   </si>
   <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>21,51%</t>
@@ -747,127 +741,130 @@
     <t>10,94%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>56,84%</t>
+    <t>56,73%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>46,38%</t>
   </si>
   <si>
     <t>34,17%</t>
   </si>
   <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>46,55%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>43,16%</t>
+    <t>43,27%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
   </si>
   <si>
     <t>82,13%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>89,93%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>79,66%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>74,53%</t>
@@ -876,28 +873,31 @@
     <t>69,59%</t>
   </si>
   <si>
-    <t>79,42%</t>
+    <t>79,39%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>34,65%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,34%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,58%</t>
+    <t>20,61%</t>
   </si>
   <si>
     <t>30,41%</t>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9E44D6-969F-40A7-A1CF-827690D928A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53CC4F1-C965-40F3-B1CE-4D076082AC3B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2369,7 +2369,7 @@
         <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -2378,13 +2378,13 @@
         <v>80623</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2399,13 @@
         <v>3824</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2414,13 +2414,13 @@
         <v>22598</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -2429,13 +2429,13 @@
         <v>26422</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2491,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2506,7 +2506,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -2518,13 +2518,13 @@
         <v>51014</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>56</v>
@@ -2533,13 +2533,13 @@
         <v>60664</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,7 +2560,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2569,13 +2569,13 @@
         <v>16074</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -2584,13 +2584,13 @@
         <v>17074</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2658,13 @@
         <v>93599</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>231</v>
@@ -2673,13 +2673,13 @@
         <v>250204</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>317</v>
@@ -2688,13 +2688,13 @@
         <v>343802</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2709,13 @@
         <v>11256</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>87</v>
@@ -2724,13 +2724,13 @@
         <v>95628</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -2739,13 +2739,13 @@
         <v>106885</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14EB22DC-79EA-4EA7-990A-AD66DB2797F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C91D3-6B8B-47E0-9EEE-8BFBAE5A3F83}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2949,10 +2949,10 @@
         <v>4951</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2964,13 +2964,13 @@
         <v>20801</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2979,13 +2979,13 @@
         <v>25751</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3000,13 @@
         <v>801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3015,13 +3015,13 @@
         <v>8464</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3030,13 +3030,13 @@
         <v>9266</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,10 +3104,10 @@
         <v>7232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -3119,13 +3119,13 @@
         <v>17881</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3134,13 +3134,13 @@
         <v>25112</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3155,13 @@
         <v>1946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3170,13 +3170,13 @@
         <v>6757</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3185,13 +3185,13 @@
         <v>8704</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,10 +3259,10 @@
         <v>9798</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -3274,13 +3274,13 @@
         <v>8401</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3289,13 +3289,13 @@
         <v>18199</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3310,13 @@
         <v>795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3325,13 +3325,13 @@
         <v>5664</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3340,13 +3340,13 @@
         <v>6459</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3414,13 @@
         <v>3775</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3429,13 +3429,13 @@
         <v>10323</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3444,13 +3444,13 @@
         <v>14098</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3465,13 @@
         <v>4067</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3480,13 +3480,13 @@
         <v>8576</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3495,13 +3495,13 @@
         <v>12643</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3572,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3584,10 +3584,10 @@
         <v>12667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3599,10 +3599,10 @@
         <v>13669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3626,7 +3626,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3635,13 +3635,13 @@
         <v>1187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3650,13 +3650,13 @@
         <v>1187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,10 +3724,10 @@
         <v>6990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3739,10 +3739,10 @@
         <v>16711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3754,13 +3754,13 @@
         <v>23701</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3775,13 @@
         <v>1915</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3790,13 +3790,13 @@
         <v>997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3805,13 +3805,13 @@
         <v>2912</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3879,13 @@
         <v>15924</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3894,13 +3894,13 @@
         <v>47048</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -3909,13 +3909,13 @@
         <v>62972</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3930,13 @@
         <v>5334</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3945,13 +3945,13 @@
         <v>24416</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3960,13 +3960,13 @@
         <v>29750</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +4022,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4034,13 +4034,13 @@
         <v>12520</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4049,13 +4049,13 @@
         <v>53519</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M25" s="7">
         <v>56</v>
@@ -4064,13 +4064,13 @@
         <v>66039</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4085,13 @@
         <v>4663</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4100,13 +4100,13 @@
         <v>9711</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -4115,13 +4115,13 @@
         <v>14373</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4189,13 @@
         <v>62191</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -4204,13 +4204,13 @@
         <v>187350</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
@@ -4219,13 +4219,13 @@
         <v>249541</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4240,13 @@
         <v>19521</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -4255,13 +4255,13 @@
         <v>65773</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -4332,7 +4332,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A18-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A18-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76996CA6-85E9-4123-A285-BFC7853E75C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DCBF1B33-7A9B-44CC-A0BD-713C357BBFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8A816EEA-B6FE-4E7F-BBCB-D30060C8BCDF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{70665AE5-E7A6-422C-89B3-3F6CDFFD6FA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="290">
   <si>
     <t>Población que recibe medicación o terapia por mala circulación en 2012 (Tasa respuesta: 6,36%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>87,95%</t>
   </si>
   <si>
-    <t>72,69%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
   </si>
   <si>
     <t>91,24%</t>
   </si>
   <si>
-    <t>79,62%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -120,19 +120,19 @@
     <t>12,05%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
   </si>
   <si>
     <t>8,76%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -144,13 +144,13 @@
     <t>90,61%</t>
   </si>
   <si>
-    <t>67,36%</t>
+    <t>71,61%</t>
   </si>
   <si>
     <t>93,51%</t>
   </si>
   <si>
-    <t>80,4%</t>
+    <t>77,49%</t>
   </si>
   <si>
     <t>17,08%</t>
@@ -159,13 +159,13 @@
     <t>9,39%</t>
   </si>
   <si>
-    <t>32,64%</t>
+    <t>28,39%</t>
   </si>
   <si>
     <t>6,49%</t>
   </si>
   <si>
-    <t>19,6%</t>
+    <t>22,51%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -174,49 +174,49 @@
     <t>91,85%</t>
   </si>
   <si>
-    <t>74,97%</t>
+    <t>74,76%</t>
   </si>
   <si>
     <t>66,78%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>72,49%</t>
   </si>
   <si>
-    <t>62,4%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
+    <t>62,91%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>25,03%</t>
+    <t>25,24%</t>
   </si>
   <si>
     <t>33,22%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>27,51%</t>
   </si>
   <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>37,6%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -225,55 +225,55 @@
     <t>55,32%</t>
   </si>
   <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>49,09%</t>
   </si>
   <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
   </si>
   <si>
     <t>50,54%</t>
   </si>
   <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>44,68%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
   </si>
   <si>
     <t>50,91%</t>
   </si>
   <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -285,19 +285,19 @@
     <t>73,87%</t>
   </si>
   <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>80,71%</t>
   </si>
   <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
+    <t>64,47%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
   </si>
   <si>
     <t>18,74%</t>
@@ -306,19 +306,19 @@
     <t>26,13%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
   </si>
   <si>
     <t>19,29%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -327,352 +327,358 @@
     <t>85,97%</t>
   </si>
   <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>59,85%</t>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
   </si>
   <si>
     <t>75,32%</t>
   </si>
   <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>35,71%</t>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>40,15%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
   </si>
   <si>
     <t>24,68%</t>
   </si>
   <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>Sevilla</t>
   </si>
   <si>
-    <t>60,65%</t>
+    <t>51,62%</t>
   </si>
   <si>
     <t>76,04%</t>
   </si>
   <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
   </si>
   <si>
     <t>23,96%</t>
   </si>
   <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>89,26%</t>
   </si>
   <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>72,35%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
   </si>
   <si>
     <t>76,28%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>80,33%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>10,74%</t>
   </si>
   <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
   </si>
   <si>
     <t>27,65%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>23,72%</t>
   </si>
   <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por mala circulación en 2015 (Tasa respuesta: 4,61%)</t>
+    <t>Población que recibe medicación o terapia por mala circulación en 2016 (Tasa respuesta: 4,61%)</t>
   </si>
   <si>
     <t>86,07%</t>
   </si>
   <si>
-    <t>42,36%</t>
+    <t>50,2%</t>
   </si>
   <si>
     <t>71,08%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
   </si>
   <si>
     <t>73,54%</t>
   </si>
   <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>56,55%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>57,64%</t>
+    <t>49,8%</t>
   </si>
   <si>
     <t>28,92%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
   </si>
   <si>
     <t>26,46%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
   </si>
   <si>
     <t>78,79%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>43,35%</t>
   </si>
   <si>
     <t>72,57%</t>
   </si>
   <si>
-    <t>50,7%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
   </si>
   <si>
     <t>74,26%</t>
   </si>
   <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
   <si>
     <t>21,21%</t>
   </si>
   <si>
-    <t>56,94%</t>
+    <t>56,65%</t>
   </si>
   <si>
     <t>27,43%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
   </si>
   <si>
     <t>25,74%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
   </si>
   <si>
     <t>92,5%</t>
   </si>
   <si>
-    <t>60,82%</t>
+    <t>61,26%</t>
   </si>
   <si>
     <t>59,73%</t>
   </si>
   <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
   </si>
   <si>
     <t>73,8%</t>
   </si>
   <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>39,18%</t>
+    <t>38,74%</t>
   </si>
   <si>
     <t>40,27%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
   </si>
   <si>
     <t>26,2%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>48,89%</t>
   </si>
   <si>
     <t>48,14%</t>
   </si>
   <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>54,62%</t>
   </si>
   <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
   </si>
   <si>
     <t>52,72%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
   </si>
   <si>
     <t>51,86%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>45,38%</t>
   </si>
   <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
   </si>
   <si>
     <t>47,28%</t>
   </si>
   <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -681,13 +687,13 @@
     <t>91,43%</t>
   </si>
   <si>
-    <t>58,67%</t>
+    <t>65,7%</t>
   </si>
   <si>
     <t>92,01%</t>
   </si>
   <si>
-    <t>67,32%</t>
+    <t>68,56%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -696,211 +702,211 @@
     <t>8,57%</t>
   </si>
   <si>
-    <t>41,33%</t>
+    <t>34,3%</t>
   </si>
   <si>
     <t>7,99%</t>
   </si>
   <si>
-    <t>32,68%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>78,49%</t>
   </si>
   <si>
-    <t>44,65%</t>
+    <t>39,13%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>73,25%</t>
+    <t>74,79%</t>
   </si>
   <si>
     <t>89,06%</t>
   </si>
   <si>
-    <t>71,85%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
   </si>
   <si>
     <t>21,51%</t>
   </si>
   <si>
-    <t>55,35%</t>
+    <t>60,87%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>26,75%</t>
+    <t>25,21%</t>
   </si>
   <si>
     <t>10,94%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>74,91%</t>
   </si>
   <si>
-    <t>53,62%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>65,83%</t>
   </si>
   <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>67,91%</t>
   </si>
   <si>
-    <t>56,73%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
   </si>
   <si>
     <t>25,09%</t>
   </si>
   <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>46,38%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>51,93%</t>
   </si>
   <si>
     <t>34,17%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
   </si>
   <si>
     <t>32,09%</t>
   </si>
   <si>
-    <t>43,27%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>72,87%</t>
   </si>
   <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
+    <t>44,4%</t>
   </si>
   <si>
     <t>84,64%</t>
   </si>
   <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>82,13%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
+    <t>55,6%</t>
   </si>
   <si>
     <t>15,36%</t>
   </si>
   <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>17,87%</t>
   </si>
   <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>74,02%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
   </si>
   <si>
     <t>74,53%</t>
   </si>
   <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>25,98%</t>
   </si>
   <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
   </si>
   <si>
     <t>25,47%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D53CC4F1-C965-40F3-B1CE-4D076082AC3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B7CC9F-58DB-4E78-A39B-83F9ADC287D2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2369,7 +2375,7 @@
         <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>72</v>
@@ -2378,13 +2384,13 @@
         <v>80623</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2405,13 @@
         <v>3824</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>20</v>
@@ -2414,13 +2420,13 @@
         <v>22598</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>23</v>
@@ -2429,13 +2435,13 @@
         <v>26422</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,7 +2497,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2506,7 +2512,7 @@
         <v>34</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -2518,13 +2524,13 @@
         <v>51014</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M25" s="7">
         <v>56</v>
@@ -2533,13 +2539,13 @@
         <v>60664</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,7 +2566,7 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2569,13 +2575,13 @@
         <v>16074</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>15</v>
@@ -2584,13 +2590,13 @@
         <v>17074</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2664,13 @@
         <v>93599</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>231</v>
@@ -2673,13 +2679,13 @@
         <v>250204</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M28" s="7">
         <v>317</v>
@@ -2688,13 +2694,13 @@
         <v>343802</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,13 +2715,13 @@
         <v>11256</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H29" s="7">
         <v>87</v>
@@ -2724,13 +2730,13 @@
         <v>95628</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M29" s="7">
         <v>97</v>
@@ -2739,13 +2745,13 @@
         <v>106885</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2801,7 +2807,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2825,7 +2831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375C91D3-6B8B-47E0-9EEE-8BFBAE5A3F83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF75EE8-4223-46FA-9536-C501E02D9B98}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2842,7 +2848,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2949,10 +2955,10 @@
         <v>4951</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>14</v>
@@ -2964,13 +2970,13 @@
         <v>20801</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2979,13 +2985,13 @@
         <v>25751</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3006,13 @@
         <v>801</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -3015,13 +3021,13 @@
         <v>8464</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>9</v>
@@ -3030,13 +3036,13 @@
         <v>9266</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3104,10 +3110,10 @@
         <v>7232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -3119,13 +3125,13 @@
         <v>17881</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -3134,13 +3140,13 @@
         <v>25112</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,13 +3161,13 @@
         <v>1946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -3170,13 +3176,13 @@
         <v>6757</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -3185,13 +3191,13 @@
         <v>8704</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,10 +3265,10 @@
         <v>9798</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>14</v>
@@ -3274,13 +3280,13 @@
         <v>8401</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
@@ -3289,13 +3295,13 @@
         <v>18199</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3316,13 @@
         <v>795</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -3325,13 +3331,13 @@
         <v>5664</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -3340,13 +3346,13 @@
         <v>6459</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3420,13 @@
         <v>3775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3429,13 +3435,13 @@
         <v>10323</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3444,13 +3450,13 @@
         <v>14098</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3471,13 @@
         <v>4067</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -3480,13 +3486,13 @@
         <v>8576</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -3495,13 +3501,13 @@
         <v>12643</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,7 +3578,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3584,10 +3590,10 @@
         <v>12667</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -3599,10 +3605,10 @@
         <v>13669</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -3626,7 +3632,7 @@
         <v>24</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3635,13 +3641,13 @@
         <v>1187</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -3650,13 +3656,13 @@
         <v>1187</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,10 +3730,10 @@
         <v>6990</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3739,10 +3745,10 @@
         <v>16711</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3754,13 +3760,13 @@
         <v>23701</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3781,13 @@
         <v>1915</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3790,13 +3796,13 @@
         <v>997</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>23</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3805,13 +3811,13 @@
         <v>2912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3885,13 @@
         <v>15924</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H22" s="7">
         <v>41</v>
@@ -3894,13 +3900,13 @@
         <v>47048</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -3909,13 +3915,13 @@
         <v>62972</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>48</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3936,13 @@
         <v>5334</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="H23" s="7">
         <v>21</v>
@@ -3945,13 +3951,13 @@
         <v>24416</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3960,13 +3966,13 @@
         <v>29750</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>254</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4022,7 +4028,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4034,13 +4040,13 @@
         <v>12520</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="H25" s="7">
         <v>44</v>
@@ -4049,13 +4055,13 @@
         <v>53519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M25" s="7">
         <v>56</v>
@@ -4064,13 +4070,13 @@
         <v>66039</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4091,13 @@
         <v>4663</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>262</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H26" s="7">
         <v>9</v>
@@ -4100,13 +4106,13 @@
         <v>9711</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M26" s="7">
         <v>13</v>
@@ -4115,13 +4121,13 @@
         <v>14373</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,13 +4195,13 @@
         <v>62191</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H28" s="7">
         <v>162</v>
@@ -4204,13 +4210,13 @@
         <v>187350</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M28" s="7">
         <v>225</v>
@@ -4219,13 +4225,13 @@
         <v>249541</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4246,13 @@
         <v>19521</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="H29" s="7">
         <v>59</v>
@@ -4255,13 +4261,13 @@
         <v>65773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M29" s="7">
         <v>78</v>
@@ -4270,13 +4276,13 @@
         <v>85294</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4332,7 +4338,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
